--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmsg459/Documents/Personal/HydridFramework/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HydridFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC9A34-FCBF-E34C-A71C-A17F2893F12D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{21178CB0-725E-3542-B201-6CFFD458B7B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="reg" sheetId="2" r:id="rId2"/>
+    <sheet name="addanddelete" sheetId="2" r:id="rId2"/>
     <sheet name="sanity" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Password</t>
   </si>
@@ -50,12 +49,69 @@
   </si>
   <si>
     <t>sunil123</t>
+  </si>
+  <si>
+    <t>LoginMessage</t>
+  </si>
+  <si>
+    <t>USER Email Doesn't Exist</t>
+  </si>
+  <si>
+    <t>Welcome Admin Manager to Learn Automation Courses</t>
+  </si>
+  <si>
+    <t>Email is required</t>
+  </si>
+  <si>
+    <t>Password is required</t>
+  </si>
+  <si>
+    <t>COURSE NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>INSTRUCTOR</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>STARTS FROM</t>
+  </si>
+  <si>
+    <t>ENDS ON</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>Selenium With Java</t>
+  </si>
+  <si>
+    <t>This is Full Stack QA Course</t>
+  </si>
+  <si>
+    <t>Mukesh Sir</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>May</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -124,12 +180,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,72 +503,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC368B7-313A-8A49-93D1-6BE4824D3A2D}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{71D78E1E-EEC5-3247-906A-CE827BB27355}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{6A5A6C0C-42D2-8444-AE5D-8A9B7B21E225}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{0DE35C23-03CD-9C45-9A8F-037E2C3BD6CF}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="46.875" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A82F30-8171-004D-B1C6-D746453C5C64}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36927061-B5FF-D34D-93D3-6C2169401C6F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
